--- a/PCAstatic/PCAstatic_predicted_factors_matrix_12.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-4.427457492296181</v>
       </c>
+      <c r="F2" t="n">
+        <v>-4.025971926334921</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.61821832155909</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.212715767252932</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.816559828589058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.435545129786633</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.074282445640222</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.736302970799451</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.42416348570966</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.139550247462337</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.883381768056915</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6559095643062671</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4568158566643936</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2853071076912379</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.1402023589628372</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.02001547096597639</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0769694301334314</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.152629773101768</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2089438825109496</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2479378886733034</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2716400788285783</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2820424173232304</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2810688507649015</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2705499328774461</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2522032493325058</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2276190909381931</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1982508100283134</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1654092959318464</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.130261017785428</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0938291040271934</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.05699695553520978</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.02051392182287825</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.01499739442464094</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.0490326010560934</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.08119610557382609</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1111911469974204</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1388095482655054</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.163921428380523</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.18646507640577</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2064371542786833</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2238833625740938</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2388896731109121</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2515742048328226</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.160327094886935</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.10718323097787</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.044069603838908</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9738599984621717</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.8990118084037646</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.8216376190296812</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7435355342191576</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.6662330947619647</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5910150775523327</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.5189444483565507</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4508781710864271</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3874809275820494</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3292386100340568</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2764726932514592</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.229355896433616</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1879290549119144</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1521188136016379</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1217556061706868</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09659135909840422</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.07631641797113063</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.06057529764477168</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.04898097875333092</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.04112758969176195</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.03660141331552193</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.03499023574958449</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.03589111039949983</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.03891664603343924</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.0436999476173973</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.04989834668668848</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.05719605826912719</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.06530589682621263</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.07397017659188608</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08296091353280971</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09207943777393596</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1011555171246527</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1100460844137266</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1186336536563694</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1268245025381572</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1345466912233881</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1417479800319325</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1483937010826726</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1544646316216834</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1599549095200399</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.09270747205152088</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1472584028331549</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.183377584621349</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2034334238657267</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2096469854140456</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2040622562308503</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.188555141684429</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1648447103637432</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1345038161721705</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09896697377263508</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.05953545559615699</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01738029947085914</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.02645575191773789</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.07105639094492056</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.115629175951314</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1595017413944352</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.2021165561474144</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2430242396312823</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2818756236524915</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3184128577904276</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.3524599041250928</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.3839127659480133</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.4127297602199309</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.4389220895700781</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.4625449086252584</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.4836890201030583</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.5024732837734623</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.5190377786610811</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.5335377262326328</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.5461381589666445</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.5570093031071004</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.5663226348031175</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.5742475635571787</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.5809486945260688</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.5865836206479053</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.5913011960355404</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.5952402430911079</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.5985286470867667</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.6012827934027581</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.6036073041906974</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.6055950329591416</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.6073272774959624</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.6088741736764334</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.04148263398360558</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.201626702646764</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3195240644375945</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4019944985975126</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4551318447732773</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4842521014259627</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4939903781272789</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4883691527178325</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.470867316271699</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4444802282179357</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4117722274912693</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3749219410632046</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3357616799628046</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2958122361326153</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2563142957968634</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2182574325846468</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1824073538395337</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1493317975478132</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.119425250667326</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.09293249644173905</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.06997089880870662</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0505512874589371</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.03459730430362395</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.02196309699822373</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.01244928512892344</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.005817169739107841</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.001801200127794677</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.000119749161584041</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0004842778313385392</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.002606991180812154</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.006207101749607788</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01101582450568058</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01678023022160067</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02326608360936664</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.03025978930377797</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.03756956377160726</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.04502594500295779</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.05248174481563868</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.05981154104876104</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.06691079903031598</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.07369470361906966</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.08009677496297085</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0860673329929013</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.1043628952142573</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1527777915508229</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.194389956311827</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.2292397029096239</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.2575156687575329</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.2795262003299621</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2956424769722012</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.3062724966715922</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.3118470058971091</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3128150887686155</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.3096434473575223</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.3028158148963721</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2928303458175484</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.280194209678847</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2654155998012553</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.2489939881995366</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2314097317545797</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.2131141307849993</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.1945208472423452</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.1759992958371245</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.1578703051167875</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.1404040632452309</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.1238201475452718</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.1082892990469292</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.0939365387781092</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.08084521724647141</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.06906162452824438</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.05859984799740559</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.04944663333155769</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.04156607140646069</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.03490399251366239</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.02939199694240556</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.0249510868480889</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.02149488959390728</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.0189324793300133</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01717081362382609</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01611680747910699</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01567906972579096</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01576932774781678</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01630356665854564</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01720290881392189</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.0183942592060935</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.01981074187656443</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.02311552819616905</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.01114850198503395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.04214214462281957</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.06947344359310505</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.09315111871701454</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.1132539005118078</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1299152844355689</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1432804493342388</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1534959353225056</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1607093747866572</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.1650768946538813</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1667725783949303</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1659965363078816</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.1629792583972733</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.1579812689187308</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.1512882383485057</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1432025620788269</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1340328824933955</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.1240831144225124</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1136423143203434</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.1029763378455017</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.09232178627180554</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.08188234561504544</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.07182732690336213</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.06229203629498958</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.05337952784631551</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.04516329430210695</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.037690503820445</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.03098546778304994</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.0250531076740371</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.01988226504129499</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.01544876125550755</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.01171816104578283</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.008648226413946164</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.006191067890643191</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.004295011165148624</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.00290620180031487</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.001969971501092379</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.001431988119224793</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.001239209534591762</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.001340659528346462</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.001688042130783175</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.002236209790627327</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.06339519886718671</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1455134351121888</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2177096609342619</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2793269198542534</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3300830640509856</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.3700688440002363</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.3996839709111563</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.4195744845007064</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4305686971534449</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.433617014498055</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.4297375785451646</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4199693264988554</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.4053333174922764</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3868027169116764</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3652813323962552</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.3415900854569554</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.3164603342573937</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2905326327269233</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.2643593849717976</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.238409940028024</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.2130769218969248</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1886829238137005</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.165487033521611</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1436909392246392</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1234445650395316</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1048512979961742</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.08797291120029904</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.07283428232525535</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.05942797550385888</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.04771871566223367</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.03764774898760927</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.02913705751760422</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.02209338147544591</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.01641199894453735</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.01198021641232543</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.008680532870777241</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.006393452007824187</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.004999929541144752</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.004383454510190685</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.004431773490153206</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.005038274814380368</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.006103055915590062</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.007533700965097872</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.02201395481436763</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01888958629600994</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01639982983064034</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01415412634443207</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01217553290523888</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01042819734961658</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.008894651110174824</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.007556282515564694</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00639662409663711</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.005399952176247486</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.004551281531082069</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003836269710873684</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.003241247981926149</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.00275326848001356</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.002360154228520765</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.002050535286227226</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.001813867017413053</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.001640430926696272</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.001521321211866805</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.001448420903357283</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.001414371197403168</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.001412536840460448</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001436969554142796</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.001482370705965028</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001544053828606319</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.001617907193059264</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.001700356429391461</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.001788327121960642</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.001879207336011145</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.001970810115223397</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.002061336088769498</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.002149336416172775</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.002233676363478323</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.002313499838533327</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.002388195216711991</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.002457362765754911</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.002520783936215624</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.002578392729611008</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.002630249296480673</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.002676515856651697</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.002717434978106076</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.002753310201509593</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.002784488955986738</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.01717152883220999</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.01225227183975427</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.008389807080962132</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.005745917139419767</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003992267794356016</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002951120892618943</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002451712074400567</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.002356018034752253</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.002548793257162077</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.002936038563954049</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.003442000267064148</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.004006763938354471</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.004583962257805434</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.005138701687687702</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.005645693960594361</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.006087600311112355</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.006453582654838193</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.00673804992873234</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.006939582476776039</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.00706001492676514</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.007103657687060842</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.007076638446091612</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.006986347194689537</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.00684097075452342</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.006649105180089382</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.00641943646321471</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.006160481599522583</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.00588038326838016</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.005586752188634605</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.00528655173185685</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.004986019700633325</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.004690622400508834</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.004405036320614224</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.004133152937953197</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.003878102400655028</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.003642292135597531</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.003427456762261055</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.003234716066230544</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.003064638177500414</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.002917305495313755</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.002792381288976225</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.00268917527203809</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.002606706787691384</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>0.01035586493585292</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.01209331294320569</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0131549683096466</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0137582145370565</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01393795431962132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01377210527463116</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01332464789117014</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01265584934580135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01181950534921323</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01086332055020283</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.009828830499600833</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.008751626334702002</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.007661676388365701</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.006583743255083114</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.005537851075217736</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.00453977355337246</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.003601518713253567</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.002731794491684221</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.001936445703894541</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.00121885791918947</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0005803271862061259</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.039658411131963e-05</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.0004628384395998354</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.0008724537176655928</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.001212446927056037</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.001487513343570448</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.001702845435598145</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.001863955248315553</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.001976518716366705</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.002046241107431389</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.002078742759193182</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.00207946415893561</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.002053589262454964</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.002005985788409004</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.001941161080199737</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.001863232016678454</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.001775907384311291</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.001682481099367832</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.001585834686762104</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.001488447476798894</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.001392413065030197</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.001299460686057534</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.001210980272119226</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>0.01735123243462308</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.008710227942052631</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.00168194347771125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.004067084216434725</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.008639107664712875</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.0121735312603231</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.01479314954940382</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.01661698156597141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.01775694082610095</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.01831771321961852</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.01839602718672242</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01808028196256238</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01745036225087403</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.01657766596306391</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.01552530262203439</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.01434842499436998</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.01309465530050044</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.01180457307851337</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.01051223839756573</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.009245730831991004</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.00802769036448946</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.006875850863271978</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.005803559950328902</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.004820281130763161</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.003932075255871363</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.003142059026490978</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.0024508385543992</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.001856916177680187</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.001357068898071532</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.000946697044599556</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.0006201420931646956</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.0003709729790774599</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.0001922407030124031</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-7.670151656408392e-05</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-1.700944778500982e-05</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-5.879361209404702e-06</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-3.622212008989965e-05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.0001012537184939444</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.0001945804727358284</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.0003102625067591864</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.0004428578403792789</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.0005874494013713883</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.0007396572421780476</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -652,6 +2164,132 @@
       </c>
       <c r="E13" t="n">
         <v>0.002272695044165493</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.003613623615584984</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.004605804374484485</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.005308459088531956</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.005745576840620121</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.005960293110941858</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.005989040079627273</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.005866179763993165</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.005622688022403449</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.005286334215092253</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.004881665930762323</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.004430117407904734</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.003950151898714281</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.00345744316243145</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.002965080683084154</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.002483788757495433</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.002022150516243775</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.001586830270136407</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.001182789505487454</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0008134934984319736</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0004811067469279967</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0001866762647799525</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-6.969769058750718e-05</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.0002887035900645252</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.000471673293271098</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.0006204493225660366</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.0007372646423418372</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.0008246347997808137</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.0008852622294131284</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.0009219524475489121</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.0009375417680231608</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.0009348360660657532</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.000916560012203015</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.0008853161019545181</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.0008435527267143149</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.0007935404711845017</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.0007373557851285963</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.0006768711620202038</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.0006137509627241115</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.0005494520459729227</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.0004852284058233182</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.0004221390660903539</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.0003610585396768848</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_12.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_12.xlsx
@@ -443,98 +443,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.699731724374067</v>
+        <v>-1.423328640925922</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.495350641751012</v>
+        <v>-1.19501468705647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.258572757410097</v>
+        <v>-0.5042364550831944</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.216912393892497</v>
+        <v>-0.6391314888068841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3509959172515454</v>
+        <v>-1.008619983838063</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2115290944926489</v>
+        <v>-0.8452853894249533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.14484638673034</v>
+        <v>-0.6793797624891781</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7805461921285272</v>
+        <v>-0.6212515765769069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1955027203003988</v>
+        <v>0.8175056764132963</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08446522446083314</v>
+        <v>0.7172543454243656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03235159002432086</v>
+        <v>-0.05953036942819206</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1485801864359923</v>
+        <v>0.03269886473398449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3583846717206049</v>
+        <v>0.8070948150488942</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2183710325100078</v>
+        <v>0.6651147549566339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2905131883717921</v>
+        <v>0.3089235724971614</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.003533286934612361</v>
+        <v>0.3071880275403656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.02086425413586665</v>
+        <v>-0.1776918520982292</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06358709684993932</v>
+        <v>-0.04165652221259124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05054406153946885</v>
+        <v>-0.3443318841345794</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01467260931079434</v>
+        <v>-0.2153747805415667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.103913509245779</v>
+        <v>-0.5091826595782183</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05392020294461882</v>
+        <v>-0.2758957494173607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001915018074071171</v>
+        <v>0.426041208712112</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.00372867028424085</v>
+        <v>0.3525548721630504</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_12.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.423328640925922</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.19501468705647</v>
+        <v>-107.2641233130529</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2444.363589461652</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-848206.9910127156</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-232422114.3849386</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-49334867294.03748</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-12348136188436.32</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3445934471965896</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.020939191186796e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.967573664670648e+20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-8.223953577968129e+22</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.197732116954065e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-5.733796199673897e+27</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.475436589610289e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-3.74191101088092e+32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-9.334061580068744e+34</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-2.300885426038761e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-5.640712605151483e+39</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.381656391110842e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.5042364550831944</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6391314888068841</v>
+        <v>-84.56691189447631</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-17916.13637089185</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2972471.164960351</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-545780908.8909533</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-108389981925.2934</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-22266256969772.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-4371479911712400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.530167006929478e+17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.648690501597223e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.127507055645315e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.72352406134926e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.848710841615216e+26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.533095942887175e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.033765735958578e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.058563409124142e+33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.158683586528471e+35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-4.337921756859613e+36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-1.725923098229291e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-1.008619983838063</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8452853894249533</v>
+        <v>-0.2428656460247716</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-6809.923816093597</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1267476.670614237</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-236909969.9437805</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-46017523937.04198</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-9291185273367.309</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1653603593539473</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.9071787623857e+17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-4.822963189582006e+19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-7.123411177539562e+21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-8.595931390230503e+23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-6.886041229905248e+25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-7.342759484450107e+26</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.721468744792199e+29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.741339162027514e+31</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.288787119176539e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.130291835986214e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.074064262858643e+38</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.6793797624891781</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6212515765769069</v>
+        <v>52.06486404799563</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6389.857278775448</v>
+      </c>
+      <c r="D5" t="n">
+        <v>602382.6183482915</v>
+      </c>
+      <c r="E5" t="n">
+        <v>115141973.8562185</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24875798365.37178</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5218421003010.326</v>
+      </c>
+      <c r="H5" t="n">
+        <v>980169175688585.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.740076868519102e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.802169971080528e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-3.883336133218448e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-4.293151939299034e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-3.611043416826757e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-3.484320181899572e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-5.424036137111729e+29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-8.334071206118066e+31</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1.309351275338543e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-2.222589654519544e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-4.05426000994928e+38</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.8175056764132963</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7172543454243656</v>
+        <v>-21.1481079104528</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2489.558088838662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-877945.8759127873</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-131775089.4974445</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-18031194442.38095</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2165438120309.544</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-178993082450110.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-7108092559808786</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.937774473444086e+17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.216968669131919e+19</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.3223999245721e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.893415611352325e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.75906841708421e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.574292544250341e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.77440238044384e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.578572559390689e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.835739307036844e+34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.773376919973832e+36</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.05953036942819206</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03269886473398449</v>
+        <v>6.726183632907424</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6015.824701211777</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1093359.690163811</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-171477742.5251147</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-25440116799.87945</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-3404176017766.279</v>
+      </c>
+      <c r="H7" t="n">
+        <v>350465080964809.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.894380637525133e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.432361420014957e+17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.831096864939765e+19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.190799357990354e+20</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-2.648968770310313e+23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-4.190660530728309e+25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.005648421804424e+27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.709322985802061e+30</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.710065343658862e+32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.178130617879538e+34</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.536675151253976e+37</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>0.8070948150488942</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6651147549566339</v>
+        <v>66.29122837130905</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6157.102178927831</v>
+      </c>
+      <c r="D8" t="n">
+        <v>598680.5866128289</v>
+      </c>
+      <c r="E8" t="n">
+        <v>88709665.10925691</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12555055163.13984</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1405877946763.568</v>
+      </c>
+      <c r="H8" t="n">
+        <v>86693462326741.48</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2423342985812340</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.060818311183664e+17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.766461887722658e+19</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.383012130292408e+21</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.138106836992825e+24</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.673555323407902e+26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.171510096167469e+28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.481458006604612e+30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.792261286633761e+32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.575831735816966e+34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.45233897316754e+36</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>0.3089235724971614</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3071880275403656</v>
+        <v>-30.20286661587236</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3036.740825009154</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-443653.8584454345</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-47198695.83104802</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1066220517.281531</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2470182322.816326</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6059274580543.134</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1094432299763783</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.821224456201569e+17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.560667041227825e+19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.385869132301435e+21</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.139238783216621e+23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.716784874624113e+25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.195777529471593e+27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.609035498475336e+29</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.104305910572987e+31</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.435165975174085e+33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.028510161893747e+36</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.1776918520982292</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.04165652221259124</v>
+        <v>12.46324468693288</v>
+      </c>
+      <c r="C10" t="n">
+        <v>976.955888912012</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-122496.1803259975</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-10132845.1591789</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4447910858.907746</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-194052131645.9875</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-19087356304432.81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1305067452841632</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-8.162605657611606e+16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-5.214129603606669e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-5.745863758184823e+18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.819623097238592e+22</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.382748414944546e+25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.313016996615372e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76649511829815e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.648849266142234e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.882906911218221e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.053448620838678e+36</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.3443318841345794</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2153747805415667</v>
+        <v>-14.83477588221575</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1840.471531220637</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-290778.4742193883</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-28572368.88179566</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-940017436.7341079</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7868295610.315441</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-4364824057803.43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-547338640567232.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-6.237491115471491e+16</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-6.239455012633087e+18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-5.67759230904655e+20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-4.640932610121827e+22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-3.616791455290346e+24</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-3.153624750535227e+26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-3.116407918135238e+28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-3.198397934706981e+30</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-3.491971005668505e+32</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-3.995850484387602e+34</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.5091826595782183</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2758957494173607</v>
+        <v>-22.27060921571018</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-206.5653526970428</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-26963.97492008988</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4306419.655459191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>393797807.6544366</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22128511106.8962</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1356414766369.708</v>
+      </c>
+      <c r="I12" t="n">
+        <v>67570696148876.07</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7711510076059492</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.210268418170435e+18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.677702192771015e+20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.112077150847303e+22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.539751373666134e+24</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.190182369484571e+26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.081191689838847e+28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4.994310553966062e+30</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.841256669175188e+32</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.638319923269659e+34</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>0.426041208712112</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3525548721630504</v>
+        <v>-25.45548480020719</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1901.280665236189</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-195041.7311123697</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-13245312.15928799</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-334591564.348058</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-20196389165.72356</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1681261634237.938</v>
+      </c>
+      <c r="I13" t="n">
+        <v>115967924895876.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.234079472281823e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.702521796363977e+18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.280273743889731e+20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.773751565069583e+22</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.970304685210322e+24</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.028745061719081e+26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.134447769996951e+28</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.294271966574437e+30</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.596998241550055e+32</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.058759331889863e+34</v>
       </c>
     </row>
   </sheetData>
